--- a/arquivos_condicionais/Ana - 22_04_2023.xlsx
+++ b/arquivos_condicionais/Ana - 22_04_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Área de Trabalho\Programming\Git\Python\Sistema_Condicional_Produtos_RPA_PY\arquivos_condicionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F5076-941F-45A7-8FB5-FE59946DDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8643F-B4FF-4EB5-89BA-709C5ED6A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Marca</t>
   </si>
@@ -52,9 +52,6 @@
     <t>CAMISETE FEM MC CAMBRAIA LARANJA M</t>
   </si>
   <si>
-    <t>299,90</t>
-  </si>
-  <si>
     <t>31580</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>VESTIDO FASHION MC VERDE FLORESTA G</t>
   </si>
   <si>
-    <t>249,90</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -125,6 +119,9 @@
   </si>
   <si>
     <t>MARCA 2</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -205,25 +202,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,32 +528,32 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" customWidth="1"/>
     <col min="5" max="5" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -579,8 +576,8 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
-        <v>229.9</v>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G2" s="6">
         <v>0.2</v>
@@ -603,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -620,19 +617,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4">
-        <v>319.89999999999998</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -650,13 +647,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
-        <v>229.9</v>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="6">
         <v>0.2</v>
@@ -670,19 +667,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4">
-        <v>139.9</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -696,25 +693,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -722,19 +719,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -748,19 +745,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
